--- a/20140927-cpa/builds/development/data/maindata.xlsx
+++ b/20140927-cpa/builds/development/data/maindata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="2232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3787" uniqueCount="2238">
   <si>
     <t>&lt;div&gt;</t>
   </si>
@@ -6716,14 +6716,40 @@
   </si>
   <si>
     <t>Source: Consumer Protection Bureau</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>HTML-formatted complaints filed by consumers to the CPB</t>
+  </si>
+  <si>
+    <t>Consumer Protection Bureau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -6751,9 +6777,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -25998,22 +26025,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2231</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2237</v>
       </c>
     </row>
   </sheetData>

--- a/20140927-cpa/builds/development/data/maindata.xlsx
+++ b/20140927-cpa/builds/development/data/maindata.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="complaints" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -26027,8 +26028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -26076,4 +26077,21 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>